--- a/Figure 11 - Median Cell Model/Table 3 Frontal Statistics.xlsx
+++ b/Figure 11 - Median Cell Model/Table 3 Frontal Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="24880" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
